--- a/학습자료/단답형/국어_기출의지혜_사자성어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_사자성어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,72 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龍蛇飛騰</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>畫蛇添足</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_기출의지혜_사자성어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_사자성어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +675,95 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>犬馬之誠</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>反哺之孝</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>間於齊楚</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>蓋世之才</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_기출의지혜_사자성어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_사자성어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,644 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>朋友有信</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>長幼有序</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>君臣有義</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>夫婦有別</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>父子有親</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>손쉽다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>시름없다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>남다르다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>기와집(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>치솟다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>고무신(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>놀이(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>마침내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>봄내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>여름내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>저녁내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>들장미(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>들국화(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>끄덕이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>망설이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>반짝이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>한껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>힘껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>눈치껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>정성껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>성의껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>지금껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>아직껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>여태껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
